--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.078342987657</v>
+        <v>30.319878</v>
       </c>
       <c r="H2">
-        <v>27.078342987657</v>
+        <v>90.95963399999999</v>
       </c>
       <c r="I2">
-        <v>0.084125309460545</v>
+        <v>0.0886902518702035</v>
       </c>
       <c r="J2">
-        <v>0.084125309460545</v>
+        <v>0.08869025187020349</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>2394.931889192234</v>
+        <v>3000.052600179672</v>
       </c>
       <c r="R2">
-        <v>2394.931889192234</v>
+        <v>27000.47340161704</v>
       </c>
       <c r="S2">
-        <v>0.01640985285865867</v>
+        <v>0.0186073008097411</v>
       </c>
       <c r="T2">
-        <v>0.01640985285865867</v>
+        <v>0.0186073008097411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.078342987657</v>
+        <v>30.319878</v>
       </c>
       <c r="H3">
-        <v>27.078342987657</v>
+        <v>90.95963399999999</v>
       </c>
       <c r="I3">
-        <v>0.084125309460545</v>
+        <v>0.0886902518702035</v>
       </c>
       <c r="J3">
-        <v>0.084125309460545</v>
+        <v>0.08869025187020349</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>4409.36869521211</v>
+        <v>4942.329178652582</v>
       </c>
       <c r="R3">
-        <v>4409.36869521211</v>
+        <v>44480.96260787323</v>
       </c>
       <c r="S3">
-        <v>0.03021258843081804</v>
+        <v>0.03065393110855511</v>
       </c>
       <c r="T3">
-        <v>0.03021258843081804</v>
+        <v>0.03065393110855511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.078342987657</v>
+        <v>30.319878</v>
       </c>
       <c r="H4">
-        <v>27.078342987657</v>
+        <v>90.95963399999999</v>
       </c>
       <c r="I4">
-        <v>0.084125309460545</v>
+        <v>0.0886902518702035</v>
       </c>
       <c r="J4">
-        <v>0.084125309460545</v>
+        <v>0.08869025187020349</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1673.997691715008</v>
+        <v>1982.80197580832</v>
       </c>
       <c r="R4">
-        <v>1673.997691715008</v>
+        <v>17845.21778227488</v>
       </c>
       <c r="S4">
-        <v>0.01147007809731185</v>
+        <v>0.01229798197798426</v>
       </c>
       <c r="T4">
-        <v>0.01147007809731185</v>
+        <v>0.01229798197798426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.078342987657</v>
+        <v>30.319878</v>
       </c>
       <c r="H5">
-        <v>27.078342987657</v>
+        <v>90.95963399999999</v>
       </c>
       <c r="I5">
-        <v>0.084125309460545</v>
+        <v>0.0886902518702035</v>
       </c>
       <c r="J5">
-        <v>0.084125309460545</v>
+        <v>0.08869025187020349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>3799.349064814378</v>
+        <v>4374.33359365214</v>
       </c>
       <c r="R5">
-        <v>3799.349064814378</v>
+        <v>39369.00234286926</v>
       </c>
       <c r="S5">
-        <v>0.02603279007375644</v>
+        <v>0.02713103797392302</v>
       </c>
       <c r="T5">
-        <v>0.02603279007375644</v>
+        <v>0.02713103797392302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.504227228875</v>
+        <v>107.5357766666667</v>
       </c>
       <c r="H6">
-        <v>106.504227228875</v>
+        <v>322.60733</v>
       </c>
       <c r="I6">
-        <v>0.3308806997004718</v>
+        <v>0.314558492538282</v>
       </c>
       <c r="J6">
-        <v>0.3308806997004718</v>
+        <v>0.3145584925382819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>9419.718564037548</v>
+        <v>10640.31281396231</v>
       </c>
       <c r="R6">
-        <v>9419.718564037548</v>
+        <v>95762.81532566076</v>
       </c>
       <c r="S6">
-        <v>0.06454304454477298</v>
+        <v>0.06599467663576369</v>
       </c>
       <c r="T6">
-        <v>0.06454304454477298</v>
+        <v>0.06599467663576368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.504227228875</v>
+        <v>107.5357766666667</v>
       </c>
       <c r="H7">
-        <v>106.504227228875</v>
+        <v>322.60733</v>
       </c>
       <c r="I7">
-        <v>0.3308806997004718</v>
+        <v>0.314558492538282</v>
       </c>
       <c r="J7">
-        <v>0.3308806997004718</v>
+        <v>0.3145584925382819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>17342.87824276477</v>
+        <v>17529.0021539247</v>
       </c>
       <c r="R7">
-        <v>17342.87824276477</v>
+        <v>157761.0193853223</v>
       </c>
       <c r="S7">
-        <v>0.1188318053610247</v>
+        <v>0.1087205657504614</v>
       </c>
       <c r="T7">
-        <v>0.1188318053610247</v>
+        <v>0.1087205657504614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>106.504227228875</v>
+        <v>107.5357766666667</v>
       </c>
       <c r="H8">
-        <v>106.504227228875</v>
+        <v>322.60733</v>
       </c>
       <c r="I8">
-        <v>0.3308806997004718</v>
+        <v>0.314558492538282</v>
       </c>
       <c r="J8">
-        <v>0.3308806997004718</v>
+        <v>0.3145584925382819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>6584.148469509218</v>
+        <v>7032.421121376179</v>
       </c>
       <c r="R8">
-        <v>6584.148469509218</v>
+        <v>63291.79009238561</v>
       </c>
       <c r="S8">
-        <v>0.0451139792625378</v>
+        <v>0.04361736031507802</v>
       </c>
       <c r="T8">
-        <v>0.0451139792625378</v>
+        <v>0.04361736031507802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>106.504227228875</v>
+        <v>107.5357766666667</v>
       </c>
       <c r="H9">
-        <v>106.504227228875</v>
+        <v>322.60733</v>
       </c>
       <c r="I9">
-        <v>0.3308806997004718</v>
+        <v>0.314558492538282</v>
       </c>
       <c r="J9">
-        <v>0.3308806997004718</v>
+        <v>0.3145584925382819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>14943.55604791817</v>
+        <v>15514.48724142208</v>
       </c>
       <c r="R9">
-        <v>14943.55604791817</v>
+        <v>139630.3851727987</v>
       </c>
       <c r="S9">
-        <v>0.1023918705321363</v>
+        <v>0.09622588983697886</v>
       </c>
       <c r="T9">
-        <v>0.1023918705321363</v>
+        <v>0.09622588983697886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>175.296517649776</v>
+        <v>189.9662756666667</v>
       </c>
       <c r="H10">
-        <v>175.296517649776</v>
+        <v>569.898827</v>
       </c>
       <c r="I10">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="J10">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>15504.02180721191</v>
+        <v>18796.54064769758</v>
       </c>
       <c r="R10">
-        <v>15504.02180721191</v>
+        <v>169168.8658292782</v>
       </c>
       <c r="S10">
-        <v>0.1062321303256743</v>
+        <v>0.1165822512556241</v>
       </c>
       <c r="T10">
-        <v>0.1062321303256743</v>
+        <v>0.1165822512556241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>175.296517649776</v>
+        <v>189.9662756666667</v>
       </c>
       <c r="H11">
-        <v>175.296517649776</v>
+        <v>569.898827</v>
       </c>
       <c r="I11">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="J11">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>28544.84034185358</v>
+        <v>30965.68750003963</v>
       </c>
       <c r="R11">
-        <v>28544.84034185358</v>
+        <v>278691.1875003567</v>
       </c>
       <c r="S11">
-        <v>0.1955866185579538</v>
+        <v>0.192059253247483</v>
       </c>
       <c r="T11">
-        <v>0.1955866185579538</v>
+        <v>0.192059253247483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>175.296517649776</v>
+        <v>189.9662756666667</v>
       </c>
       <c r="H12">
-        <v>175.296517649776</v>
+        <v>569.898827</v>
       </c>
       <c r="I12">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="J12">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>10836.92477213855</v>
+        <v>12423.05482656674</v>
       </c>
       <c r="R12">
-        <v>10836.92477213855</v>
+        <v>111807.4934391007</v>
       </c>
       <c r="S12">
-        <v>0.07425361103322492</v>
+        <v>0.07705182173138878</v>
       </c>
       <c r="T12">
-        <v>0.07425361103322492</v>
+        <v>0.07705182173138879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>175.296517649776</v>
+        <v>189.9662756666667</v>
       </c>
       <c r="H13">
-        <v>175.296517649776</v>
+        <v>569.898827</v>
       </c>
       <c r="I13">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="J13">
-        <v>0.5446003029566948</v>
+        <v>0.5556802318175943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>24595.76868132142</v>
+        <v>27406.96586278095</v>
       </c>
       <c r="R13">
-        <v>24595.76868132142</v>
+        <v>246662.6927650285</v>
       </c>
       <c r="S13">
-        <v>0.1685279430398418</v>
+        <v>0.1699869055830984</v>
       </c>
       <c r="T13">
-        <v>0.1685279430398418</v>
+        <v>0.1699869055830984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.0019626914533</v>
+        <v>14.040646</v>
       </c>
       <c r="H14">
-        <v>13.0019626914533</v>
+        <v>42.121938</v>
       </c>
       <c r="I14">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="J14">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>1149.95275324059</v>
+        <v>1389.275924543704</v>
       </c>
       <c r="R14">
-        <v>1149.95275324059</v>
+        <v>12503.48332089334</v>
       </c>
       <c r="S14">
-        <v>0.007879370415603843</v>
+        <v>0.008616740597870751</v>
       </c>
       <c r="T14">
-        <v>0.007879370415603843</v>
+        <v>0.008616740597870752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.0019626914533</v>
+        <v>14.040646</v>
       </c>
       <c r="H15">
-        <v>13.0019626914533</v>
+        <v>42.121938</v>
       </c>
       <c r="I15">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="J15">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>2117.206628712202</v>
+        <v>2288.712850788241</v>
       </c>
       <c r="R15">
-        <v>2117.206628712202</v>
+        <v>20598.41565709417</v>
       </c>
       <c r="S15">
-        <v>0.0145069049376023</v>
+        <v>0.01419534060142359</v>
       </c>
       <c r="T15">
-        <v>0.0145069049376023</v>
+        <v>0.01419534060142359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.0019626914533</v>
+        <v>14.040646</v>
       </c>
       <c r="H16">
-        <v>13.0019626914533</v>
+        <v>42.121938</v>
       </c>
       <c r="I16">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="J16">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>803.7883094685167</v>
+        <v>918.203583484907</v>
       </c>
       <c r="R16">
-        <v>803.7883094685167</v>
+        <v>8263.832251364161</v>
       </c>
       <c r="S16">
-        <v>0.005507483510245928</v>
+        <v>0.00569499690820843</v>
       </c>
       <c r="T16">
-        <v>0.005507483510245928</v>
+        <v>0.005694996908208431</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.0019626914533</v>
+        <v>14.040646</v>
       </c>
       <c r="H17">
-        <v>13.0019626914533</v>
+        <v>42.121938</v>
       </c>
       <c r="I17">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="J17">
-        <v>0.0403936878822884</v>
+        <v>0.04107102377392038</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>1824.299028010756</v>
+        <v>2025.683265426647</v>
       </c>
       <c r="R17">
-        <v>1824.299028010756</v>
+        <v>18231.14938883982</v>
       </c>
       <c r="S17">
-        <v>0.01249992901883634</v>
+        <v>0.0125639456664176</v>
       </c>
       <c r="T17">
-        <v>0.01249992901883634</v>
+        <v>0.01256394566641761</v>
       </c>
     </row>
   </sheetData>
